--- a/2-semester/physics/lab3.xlsx
+++ b/2-semester/physics/lab3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\YandexDisk\University\Physics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rgpu\2-semester\physics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A482238-43D6-4C6F-A38E-D3E87434D95F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C6E4F61-0BDE-4B63-825C-7A801F5C09C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8676" xr2:uid="{55BAFDA3-260D-4066-BA59-D52DF02478FF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{55BAFDA3-260D-4066-BA59-D52DF02478FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Определение коэффициента поверх" sheetId="1" r:id="rId1"/>
@@ -20,11 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -56,9 +51,6 @@
     <t>Относительная погрешность ꙍ, %</t>
   </si>
   <si>
-    <t>Лабораторная работа. Определение коэффициента поверхностного натяжения жидкости методом отрыва кольца</t>
-  </si>
-  <si>
     <t>ΔD, м</t>
   </si>
   <si>
@@ -81,6 +73,9 @@
   </si>
   <si>
     <t>Табличные значения σ, Н/м</t>
+  </si>
+  <si>
+    <t>Лабораторная работа № 3. Определение коэффициента поверхностного натяжения жидкости методом отрыва кольца</t>
   </si>
 </sst>
 </file>
@@ -125,7 +120,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -148,15 +143,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -166,9 +171,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -184,9 +195,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -224,7 +235,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -330,7 +341,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -482,350 +493,349 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7942444D-2486-4944-B707-FDE38E68EA32}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="12" width="8.88671875" style="3"/>
-    <col min="13" max="13" width="8.88671875" style="3" customWidth="1"/>
-    <col min="14" max="14" width="23.33203125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="30.109375" style="3" customWidth="1"/>
-    <col min="16" max="16" width="8.88671875" style="3"/>
-    <col min="17" max="17" width="19.21875" style="3" customWidth="1"/>
-    <col min="18" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="12" width="8.85546875" style="2"/>
+    <col min="13" max="13" width="8.85546875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="23.28515625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="30.140625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="8.85546875" style="2"/>
+    <col min="17" max="17" width="19.28515625" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1"/>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
+      <c r="B1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2"/>
-      <c r="B2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="B2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
       <c r="G2"/>
       <c r="H2"/>
       <c r="I2"/>
     </row>
-    <row r="4" spans="1:17" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="1:17" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" s="4" t="s">
+      <c r="K4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="L4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="N4" s="2" t="s">
+      <c r="N4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="4" t="s">
-        <v>16</v>
+      <c r="Q4" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B5" s="4">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="D5" s="4">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="D5" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E5" s="3">
         <v>1E-3</v>
       </c>
-      <c r="F5" s="4">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="G5" s="4">
+      <c r="F5" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="G5" s="3">
         <v>11.4</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>0.125</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>0</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="3">
         <f>9.81*0.001</f>
         <v>9.810000000000001E-3</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="3">
         <f>J5/(2*PI()*(C5-E5))</f>
         <v>3.903274979328733E-2</v>
       </c>
-      <c r="L5" s="4"/>
-      <c r="N5" s="4">
+      <c r="L5" s="3"/>
+      <c r="N5" s="3">
         <f>ABS(K5-Q$5)</f>
         <v>3.3217250206712665E-2</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="3">
         <f>N5/K5*100</f>
         <v>85.100973881233472</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q5" s="3">
         <v>7.2249999999999995E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B6" s="4">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
         <v>2</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="D6" s="4">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="E6" s="4">
+      <c r="D6" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E6" s="3">
         <v>1E-3</v>
       </c>
-      <c r="F6" s="4">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="G6" s="4">
+      <c r="F6" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="G6" s="3">
         <v>9.9499999999999993</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>0.125</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <v>0</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="3">
         <f>9.81*0.002</f>
         <v>1.9620000000000002E-2</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="3">
         <f t="shared" ref="K6:K9" si="0">J6/(2*PI()*(C6-E6))</f>
         <v>7.806549958657466E-2</v>
       </c>
-      <c r="L6" s="4"/>
-      <c r="N6" s="4">
+      <c r="L6" s="3"/>
+      <c r="N6" s="3">
         <f t="shared" ref="N6:N10" si="1">ABS(K6-Q$5)</f>
         <v>5.8154995865746656E-3</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6" s="3">
         <f t="shared" ref="O6:O10" si="2">N6/K6*100</f>
         <v>7.4495130593832615</v>
       </c>
       <c r="Q6"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B7" s="4">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
         <v>3</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="D7" s="4">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="E7" s="4">
+      <c r="D7" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E7" s="3">
         <v>1E-3</v>
       </c>
-      <c r="F7" s="4">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="G7" s="4">
+      <c r="F7" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="G7" s="3">
         <v>11.6</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>0.125</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <v>0</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="3">
         <f>9.81*0.0022</f>
         <v>2.1582000000000004E-2</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="3">
         <f t="shared" si="0"/>
         <v>8.5872049545232143E-2</v>
       </c>
-      <c r="L7" s="4"/>
-      <c r="N7" s="4">
+      <c r="L7" s="3"/>
+      <c r="N7" s="3">
         <f t="shared" si="1"/>
         <v>1.3622049545232148E-2</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="3">
         <f t="shared" si="2"/>
         <v>15.863193690348437</v>
       </c>
       <c r="Q7"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B8" s="4">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
         <v>4</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="D8" s="4">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="E8" s="4">
+      <c r="D8" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E8" s="3">
         <v>1E-3</v>
       </c>
-      <c r="F8" s="4">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="G8" s="4">
+      <c r="F8" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="G8" s="3">
         <v>10.8</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <v>0.125</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="3">
         <v>0</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="3">
         <f>9.81*0.0015</f>
         <v>1.4715000000000001E-2</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="3">
         <f t="shared" si="0"/>
         <v>5.8549124689930995E-2</v>
       </c>
-      <c r="L8" s="4"/>
-      <c r="N8" s="4">
+      <c r="L8" s="3"/>
+      <c r="N8" s="3">
         <f t="shared" si="1"/>
         <v>1.3700875310069E-2</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="3">
         <f t="shared" si="2"/>
         <v>23.400649254155649</v>
       </c>
       <c r="Q8"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B9" s="4">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
         <v>5</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="D9" s="4">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="E9" s="4">
+      <c r="D9" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E9" s="3">
         <v>1E-3</v>
       </c>
-      <c r="F9" s="4">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="G9" s="4">
+      <c r="F9" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="G9" s="3">
         <v>10.3</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>0.125</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <v>0</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="3">
         <f>9.81*0.0018</f>
         <v>1.7658E-2</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="3">
         <f t="shared" si="0"/>
         <v>7.0258949627917192E-2</v>
       </c>
-      <c r="L9" s="4"/>
-      <c r="N9" s="4">
+      <c r="L9" s="3"/>
+      <c r="N9" s="3">
         <f t="shared" si="1"/>
         <v>1.9910503720828032E-3</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="3">
         <f t="shared" si="2"/>
         <v>2.8338743784630465</v>
       </c>
       <c r="Q9"/>
     </row>
-    <row r="10" spans="1:17" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="4" t="s">
+    <row r="10" spans="1:17" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3">
         <f>AVERAGE(J5:J9)</f>
         <v>1.6677000000000004E-2</v>
       </c>
-      <c r="K10" s="4">
-        <f t="shared" ref="K10:L10" si="3">AVERAGE(K5:K9)</f>
+      <c r="K10" s="3">
+        <f t="shared" ref="K10" si="3">AVERAGE(K5:K9)</f>
         <v>6.6355674648588464E-2</v>
       </c>
-      <c r="L10" s="4"/>
-      <c r="N10" s="4">
+      <c r="L10" s="3"/>
+      <c r="N10" s="3">
         <f t="shared" si="1"/>
         <v>5.8943253514115307E-3</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10" s="3">
         <f t="shared" si="2"/>
         <v>8.8829258124902761</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B1:M1"/>
     <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
